--- a/BOM/Bill of Materials-REX 9628 Extern Kernel 8.xlsx
+++ b/BOM/Bill of Materials-REX 9628 Extern Kernel 8.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Quantity</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Ceramic Disc Capacitors 100nF -20%~+80% 50V Through Hole,P=2.54mm RoHS</t>
   </si>
   <si>
-    <t>CN1</t>
-  </si>
-  <si>
-    <t>Expansion Port EDGE Connector for Interface Cards</t>
-  </si>
-  <si>
     <t>CN2</t>
   </si>
   <si>
@@ -68,91 +62,91 @@
     <t>CONN HEADER .100 SNGL STR 1POS</t>
   </si>
   <si>
+    <t>St.1, St.2</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>M27C256B-10F1</t>
+  </si>
+  <si>
+    <t>IC EPROM 256K PARALLEL 28CDIP</t>
+  </si>
+  <si>
     <t>SW1</t>
   </si>
   <si>
     <t>Wurth Electronics</t>
   </si>
   <si>
+    <t>418117270904</t>
+  </si>
+  <si>
+    <t>SWITCH SLIDE DIP SPST 25MA 24V</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>418117270910</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
     <t>430476085716</t>
   </si>
   <si>
     <t>Black Button Tactile Switch, NO 50 mA 5mm Through Hole</t>
   </si>
   <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>418117270904</t>
-  </si>
-  <si>
-    <t>SWITCH SLIDE DIP SPST 25MA 24V</t>
-  </si>
-  <si>
-    <t>SW3</t>
-  </si>
-  <si>
-    <t>418117270910</t>
-  </si>
-  <si>
-    <t>U1, U7</t>
-  </si>
-  <si>
-    <t>STMicroelectronics</t>
-  </si>
-  <si>
-    <t>M27C256B-10F1</t>
-  </si>
-  <si>
-    <t>IC EPROM 256K PARALLEL 28CDIP</t>
-  </si>
-  <si>
-    <t>U2</t>
+    <t>U3</t>
   </si>
   <si>
     <t>Texas Instruments</t>
   </si>
   <si>
+    <t>SN74LS30N</t>
+  </si>
+  <si>
+    <t>IC GATE NAND 1CH 8-INP 14DIP</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>SN74LS125AN</t>
+  </si>
+  <si>
+    <t>IC BUS BUFF TRI-ST QD 14DIP</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
     <t>SN74LS04N</t>
   </si>
   <si>
     <t>IC HEX INVERTER 14-DIP</t>
   </si>
   <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SN74LS125AN</t>
-  </si>
-  <si>
-    <t>IC BUS BUFF TRI-ST QD 14DIP</t>
-  </si>
-  <si>
-    <t>U4</t>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>SN74LS148NSR</t>
+  </si>
+  <si>
+    <t>IC PRIORITY ENCODER 8-3L 16SO</t>
+  </si>
+  <si>
+    <t>U7</t>
   </si>
   <si>
     <t>SN74LS00N</t>
   </si>
   <si>
     <t>IC, 74LS, 74LS00, DIP14, 5.25V</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SN74LS148NSR</t>
-  </si>
-  <si>
-    <t>IC PRIORITY ENCODER 8-3L 16SO</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>SN74LS30N</t>
-  </si>
-  <si>
-    <t>IC GATE NAND 1CH 8-INP 14DIP</t>
   </si>
 </sst>
 </file>
@@ -504,7 +498,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,51 +539,55 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -597,50 +595,50 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -648,16 +646,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -665,16 +663,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -682,16 +680,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -699,33 +697,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
